--- a/data/test_files/jeff_table.xlsx
+++ b/data/test_files/jeff_table.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\carbonarc\database_tool\data\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64AE9C2-1049-491F-828A-66661AF789C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4D793D-5C44-465E-851F-1C05EC0C9118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2827" windowWidth="14483" windowHeight="9285" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="load-1" sheetId="1" r:id="rId1"/>
     <sheet name="load-2" sheetId="2" r:id="rId2"/>
     <sheet name="load-3" sheetId="3" r:id="rId3"/>
+    <sheet name="load-4" sheetId="4" r:id="rId4"/>
+    <sheet name="load-5" sheetId="5" r:id="rId5"/>
+    <sheet name="load-6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="39">
   <si>
     <t>created_ts</t>
   </si>
@@ -111,6 +115,39 @@
   </si>
   <si>
     <t>Sam</t>
+  </si>
+  <si>
+    <t>kyle</t>
+  </si>
+  <si>
+    <t>erin</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>Judy Smith</t>
+  </si>
+  <si>
+    <t>Sally Jones</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>favorite_food</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>cholocate</t>
   </si>
 </sst>
 </file>
@@ -449,7 +486,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -608,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6715199E-6949-4B8D-AB6A-5D26B5CDE9CF}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -649,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>45001.009283564817</v>
+        <v>45002.009282407409</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -675,10 +712,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>45001.009283564817</v>
+        <v>45002.009282407409</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -701,10 +738,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>45001.009283564817</v>
+        <v>45002.009282407409</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -729,10 +766,291 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C1B25D-BFFD-4060-95CA-45382C4C537E}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45003.009282407409</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45003.009282407409</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58D53CEB-AF6E-44E6-8DFC-BE530FB99AE7}">
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H6" sqref="A1:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45004.009282407409</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45004.009282407409</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45004.009282407409</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45004.009282407409</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45004.009282407409</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059C2A4C-F962-480F-8A4F-FCBED95D47A0}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -771,16 +1089,16 @@
         <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>45003.009282407409</v>
+        <v>45005.009282407409</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -789,7 +1107,7 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
@@ -797,16 +1115,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>45003.009282407409</v>
+        <v>45005.009282407409</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -816,9 +1134,273 @@
       </c>
       <c r="H3" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45005.009282407409</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45005.009282407409</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45005.009282407409</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABEEB11-0828-4EBA-9F72-4F5F78948D7D}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="19.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45006.009282407409</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45006.009282407409</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45006.009282407409</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45006.009282407409</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>45006.009282407409</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C753E2-BABB-4971-BDA2-7201BC0D936B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/test_files/jeff_table.xlsx
+++ b/data/test_files/jeff_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\carbonarc\database_tool\data\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4D793D-5C44-465E-851F-1C05EC0C9118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7132EC5-E208-4106-B18E-40981573C615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="load-1" sheetId="1" r:id="rId1"/>
@@ -768,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C1B25D-BFFD-4060-95CA-45382C4C537E}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -1223,8 +1223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABEEB11-0828-4EBA-9F72-4F5F78948D7D}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/data/test_files/jeff_table.xlsx
+++ b/data/test_files/jeff_table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Coding\carbonarc\database_tool\data\test_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\carbonarc\database_tool\data\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7132EC5-E208-4106-B18E-40981573C615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2DD436-B173-4278-A84E-1A0B3DF8C22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25770" yWindow="270" windowWidth="25740" windowHeight="9230" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="load-1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="load-4" sheetId="4" r:id="rId4"/>
     <sheet name="load-5" sheetId="5" r:id="rId5"/>
     <sheet name="load-6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="7" r:id="rId7"/>
+    <sheet name="load-7" sheetId="8" r:id="rId7"/>
+    <sheet name="load-8" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="42">
   <si>
     <t>created_ts</t>
   </si>
@@ -147,7 +148,16 @@
     <t>cookies</t>
   </si>
   <si>
-    <t>cholocate</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>steak</t>
+  </si>
+  <si>
+    <t>pb and j</t>
+  </si>
+  <si>
+    <t>cake</t>
   </si>
 </sst>
 </file>
@@ -486,18 +496,18 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -520,7 +530,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45001.009283564817</v>
       </c>
@@ -543,7 +553,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>45001.009283564817</v>
       </c>
@@ -566,7 +576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>45001.009283564817</v>
       </c>
@@ -589,7 +599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>45001.009283564817</v>
       </c>
@@ -612,7 +622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>45001.009283564817</v>
       </c>
@@ -649,13 +659,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -681,7 +692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -707,7 +718,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -733,7 +744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -766,19 +777,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C1B25D-BFFD-4060-95CA-45382C4C537E}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.53125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -803,11 +814,8 @@
       <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4</v>
       </c>
@@ -832,11 +840,8 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -860,9 +865,6 @@
       </c>
       <c r="H3" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -875,16 +877,17 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="A1:H6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -910,7 +913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4</v>
       </c>
@@ -936,7 +939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -959,10 +962,10 @@
         <v>4</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -988,7 +991,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1014,7 +1017,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1050,15 +1053,17 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="A1:H6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1084,7 +1089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4</v>
       </c>
@@ -1110,7 +1115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1136,7 +1141,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1162,7 +1167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1188,7 +1193,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1224,15 +1229,16 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1258,7 +1264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>4</v>
       </c>
@@ -1284,7 +1290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1336,7 +1342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1362,7 +1368,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1394,13 +1400,244 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53C753E2-BABB-4971-BDA2-7201BC0D936B}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10DC031-3860-494B-AE66-3DFA73F56CFD}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45007.009282407409</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45007.009282407409</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{732C6238-045F-4F61-84A2-5C481E41FEC7}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>45008.009282407409</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>45008.009282407409</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45008.009282407409</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/test_files/jeff_table.xlsx
+++ b/data/test_files/jeff_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\carbonarc\database_tool\data\test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2DD436-B173-4278-A84E-1A0B3DF8C22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FBAE3C-874B-46C7-AD8F-9CB8B4F36937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25770" yWindow="270" windowWidth="25740" windowHeight="9230" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9500" yWindow="0" windowWidth="23140" windowHeight="12190" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="load-1" sheetId="1" r:id="rId1"/>
@@ -656,7 +656,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G20" sqref="G20:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1228,13 +1228,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABEEB11-0828-4EBA-9F72-4F5F78948D7D}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1403,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10DC031-3860-494B-AE66-3DFA73F56CFD}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
